--- a/configs/test_cases.xlsx
+++ b/configs/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_ws/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACDCBB-A324-864B-BB02-93C3F45A45D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C11468-97B3-1942-901E-094451AE0CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="740" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
-  <si>
-    <t>Identifier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -71,24 +68,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/IPL Matches 2008-2020_t.csv</t>
-  </si>
-  <si>
-    <t>CSV</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/Contact_info_t.csv</t>
-  </si>
-  <si>
-    <t>Identifier,Surname,given_name</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>min_val</t>
   </si>
   <si>
@@ -101,9 +83,6 @@
     <t>result_margin</t>
   </si>
   <si>
-    <t>database</t>
-  </si>
-  <si>
     <t>source_query</t>
   </si>
   <si>
@@ -113,40 +92,22 @@
     <t>parquet</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/userdata1.parquet</t>
-  </si>
-  <si>
     <t>target_query</t>
   </si>
   <si>
-    <t>select * from test2.test_schema.sample_table</t>
-  </si>
-  <si>
     <t>database_type</t>
   </si>
   <si>
-    <t>snowflake_2</t>
-  </si>
-  <si>
-    <t>snowflake_qa</t>
-  </si>
-  <si>
-    <t>Select * from test_db.test_schema.SAMPLE_TABLE</t>
-  </si>
-  <si>
-    <t>/Users/admin/PycharmProjects/august_2025_automation/input_files/Contact_info_t.csv</t>
-  </si>
-  <si>
     <t>validations</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/Contact_info.csv</t>
-  </si>
-  <si>
-    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/userdata1.parquet</t>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_ws/input_files/Contact_info.csv</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_ws/input_files/userdata1.parquet</t>
   </si>
 </sst>
 </file>
@@ -528,7 +489,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,75 +509,75 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -625,107 +586,20 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
